--- a/2023/09/26/20230926.xlsx
+++ b/2023/09/26/20230926.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Congviec2023\Autofill\2023\09\26\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3214B64-D5B1-4BDC-B3B7-FD1FFB75CBE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B68EB51-EA3A-4CEE-BFC9-A9A02E9D9CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{09429FE4-84AA-424C-866A-F17882CEC0F7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="28">
   <si>
     <t>Surname</t>
   </si>
@@ -111,13 +111,25 @@
   </si>
   <si>
     <t>M70689098</t>
+  </si>
+  <si>
+    <t>M70689099</t>
+  </si>
+  <si>
+    <t>33 Lò Sũ</t>
+  </si>
+  <si>
+    <t>M70689100</t>
+  </si>
+  <si>
+    <t>34 Lò Sũ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -129,6 +141,12 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -513,7 +531,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ACC27AD-B820-4554-B2EC-05CEE96E4CD6}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -642,6 +660,106 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6">
+        <v>31231</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="6">
+        <v>45206</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="6">
+        <v>41744</v>
+      </c>
+      <c r="J3" s="6">
+        <v>45397</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="2">
+        <v>101</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6">
+        <v>31232</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="6">
+        <v>45207</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="6">
+        <v>41744</v>
+      </c>
+      <c r="J4" s="6">
+        <v>45397</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="2">
+        <v>101</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -650,7 +768,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DFF66B0-72EE-4483-9305-DFE22BFFCE00}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -779,6 +897,106 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6">
+        <v>31231</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="6">
+        <v>45206</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="6">
+        <v>41744</v>
+      </c>
+      <c r="J3" s="6">
+        <v>45397</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="2">
+        <v>101</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6">
+        <v>31232</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="6">
+        <v>45207</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="6">
+        <v>41744</v>
+      </c>
+      <c r="J4" s="6">
+        <v>45397</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="2">
+        <v>101</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -787,11 +1005,9 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3C18D3-E620-4F63-B2E2-18F1B8BA562B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
@@ -918,6 +1134,106 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6">
+        <v>31231</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="6">
+        <v>45206</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="6">
+        <v>41744</v>
+      </c>
+      <c r="J3" s="6">
+        <v>45397</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="2">
+        <v>101</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6">
+        <v>31232</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="6">
+        <v>45207</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="6">
+        <v>41744</v>
+      </c>
+      <c r="J4" s="6">
+        <v>45397</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="2">
+        <v>101</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -926,7 +1242,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B26294-F956-4BDF-A3D0-BF6B1ACD3115}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1055,7 +1371,108 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6">
+        <v>31231</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="6">
+        <v>45206</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="6">
+        <v>41744</v>
+      </c>
+      <c r="J3" s="6">
+        <v>45397</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="2">
+        <v>101</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6">
+        <v>31232</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="6">
+        <v>45207</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="6">
+        <v>41744</v>
+      </c>
+      <c r="J4" s="6">
+        <v>45397</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="2">
+        <v>101</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/2023/09/26/20230926.xlsx
+++ b/2023/09/26/20230926.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Congviec2023\Autofill\2023\09\26\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B68EB51-EA3A-4CEE-BFC9-A9A02E9D9CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709DC8EB-F664-4A3E-B055-C484EF2D9FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{09429FE4-84AA-424C-866A-F17882CEC0F7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="25">
   <si>
     <t>Surname</t>
   </si>
@@ -83,46 +83,37 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Contact address</t>
-  </si>
-  <si>
     <t>Seoul</t>
   </si>
   <si>
-    <t>Entry checkpoint</t>
-  </si>
-  <si>
-    <t>Exit checkpoint</t>
-  </si>
-  <si>
-    <t>SNB</t>
-  </si>
-  <si>
-    <t>Temporary residential address in VN</t>
-  </si>
-  <si>
-    <t>32 Lò Sũ</t>
-  </si>
-  <si>
-    <t>Province</t>
-  </si>
-  <si>
-    <t>Intended expenses</t>
-  </si>
-  <si>
     <t>M70689098</t>
   </si>
   <si>
     <t>M70689099</t>
   </si>
   <si>
-    <t>33 Lò Sũ</t>
-  </si>
-  <si>
     <t>M70689100</t>
   </si>
   <si>
-    <t>34 Lò Sũ</t>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Hyeri</t>
+  </si>
+  <si>
+    <t>Choi</t>
+  </si>
+  <si>
+    <t>Sooyung</t>
+  </si>
+  <si>
+    <t>Park</t>
+  </si>
+  <si>
+    <t>Jiyeon</t>
+  </si>
+  <si>
+    <t>Contact address in China</t>
   </si>
 </sst>
 </file>
@@ -531,7 +522,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ACC27AD-B820-4554-B2EC-05CEE96E4CD6}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -547,18 +538,11 @@
     <col min="8" max="8" width="14.5" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.19921875" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.296875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="30.296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.296875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="16.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.296875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="13.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.796875" style="2"/>
+    <col min="11" max="11" width="20.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
@@ -590,35 +574,18 @@
         <v>7</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D2" s="6">
         <v>31230</v>
@@ -633,7 +600,7 @@
         <v>45205</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I2" s="6">
         <v>41744</v>
@@ -642,33 +609,18 @@
         <v>45397</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="2">
-        <v>101</v>
-      </c>
-      <c r="P2" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D3" s="6">
         <v>31231</v>
@@ -683,7 +635,7 @@
         <v>45206</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I3" s="6">
         <v>41744</v>
@@ -692,33 +644,18 @@
         <v>45397</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="2">
-        <v>101</v>
-      </c>
-      <c r="P3" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D4" s="6">
         <v>31232</v>
@@ -733,7 +670,7 @@
         <v>45207</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I4" s="6">
         <v>41744</v>
@@ -742,22 +679,7 @@
         <v>45397</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="2">
-        <v>101</v>
-      </c>
-      <c r="P4" s="2">
-        <v>1000</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -768,7 +690,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DFF66B0-72EE-4483-9305-DFE22BFFCE00}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -784,18 +706,11 @@
     <col min="8" max="8" width="14.5" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.19921875" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.296875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="30.296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.296875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="16.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.296875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="13.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.796875" style="2"/>
+    <col min="11" max="11" width="20.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
@@ -827,27 +742,10 @@
         <v>7</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -870,7 +768,7 @@
         <v>45205</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I2" s="6">
         <v>41744</v>
@@ -879,25 +777,10 @@
         <v>45397</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="2">
-        <v>101</v>
-      </c>
-      <c r="P2" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -920,7 +803,7 @@
         <v>45206</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I3" s="6">
         <v>41744</v>
@@ -929,25 +812,10 @@
         <v>45397</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="2">
-        <v>101</v>
-      </c>
-      <c r="P3" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -970,7 +838,7 @@
         <v>45207</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I4" s="6">
         <v>41744</v>
@@ -979,22 +847,7 @@
         <v>45397</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="2">
-        <v>101</v>
-      </c>
-      <c r="P4" s="2">
-        <v>1000</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1005,7 +858,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3C18D3-E620-4F63-B2E2-18F1B8BA562B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1021,18 +874,11 @@
     <col min="8" max="8" width="14.5" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.19921875" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.296875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="30.296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.296875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="16.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.296875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="13.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.796875" style="2"/>
+    <col min="11" max="11" width="20.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
@@ -1064,35 +910,18 @@
         <v>7</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D2" s="6">
         <v>31230</v>
@@ -1107,7 +936,7 @@
         <v>45205</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I2" s="6">
         <v>41744</v>
@@ -1116,33 +945,18 @@
         <v>45397</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="2">
-        <v>101</v>
-      </c>
-      <c r="P2" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D3" s="6">
         <v>31231</v>
@@ -1157,7 +971,7 @@
         <v>45206</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I3" s="6">
         <v>41744</v>
@@ -1166,33 +980,18 @@
         <v>45397</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="2">
-        <v>101</v>
-      </c>
-      <c r="P3" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D4" s="6">
         <v>31232</v>
@@ -1207,7 +1006,7 @@
         <v>45207</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I4" s="6">
         <v>41744</v>
@@ -1216,22 +1015,7 @@
         <v>45397</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="2">
-        <v>101</v>
-      </c>
-      <c r="P4" s="2">
-        <v>1000</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1242,7 +1026,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B26294-F956-4BDF-A3D0-BF6B1ACD3115}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1258,18 +1042,11 @@
     <col min="8" max="8" width="14.5" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.19921875" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.296875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="30.296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.296875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="16.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.296875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="13.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.796875" style="2"/>
+    <col min="11" max="11" width="20.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
@@ -1301,35 +1078,18 @@
         <v>7</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D2" s="6">
         <v>31230</v>
@@ -1344,7 +1104,7 @@
         <v>45205</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I2" s="6">
         <v>41744</v>
@@ -1353,33 +1113,18 @@
         <v>45397</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="2">
-        <v>101</v>
-      </c>
-      <c r="P2" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D3" s="6">
         <v>31231</v>
@@ -1394,7 +1139,7 @@
         <v>45206</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I3" s="6">
         <v>41744</v>
@@ -1403,33 +1148,18 @@
         <v>45397</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="2">
-        <v>101</v>
-      </c>
-      <c r="P3" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D4" s="6">
         <v>31232</v>
@@ -1444,7 +1174,7 @@
         <v>45207</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I4" s="6">
         <v>41744</v>
@@ -1453,22 +1183,7 @@
         <v>45397</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="2">
-        <v>101</v>
-      </c>
-      <c r="P4" s="2">
-        <v>1000</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
